--- a/Data/Excel_Wide/camino_countries_wide.xlsx
+++ b/Data/Excel_Wide/camino_countries_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ225"/>
+  <dimension ref="A1:AZ227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,37 +708,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>546</v>
+        <v>1092</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
         <v>12</v>
       </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6</v>
-      </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -868,22 +868,22 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1146</v>
+        <v>2292</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -892,25 +892,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>124</v>
+      </c>
+      <c r="O3" t="n">
+        <v>116</v>
+      </c>
+      <c r="P3" t="n">
         <v>62</v>
       </c>
-      <c r="O3" t="n">
-        <v>58</v>
-      </c>
-      <c r="P3" t="n">
-        <v>31</v>
-      </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -1028,22 +1028,22 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2703</v>
+        <v>5406</v>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1070,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="S4" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -1188,22 +1188,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>12745</v>
+        <v>25490</v>
       </c>
       <c r="E5" t="n">
-        <v>458</v>
+        <v>916</v>
       </c>
       <c r="F5" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="G5" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>408</v>
+        <v>816</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>704</v>
+        <v>1408</v>
       </c>
       <c r="O5" t="n">
-        <v>489</v>
+        <v>978</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="U5" t="n">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -1348,22 +1348,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>11210</v>
+        <v>22420</v>
       </c>
       <c r="E6" t="n">
-        <v>1221</v>
+        <v>2442</v>
       </c>
       <c r="F6" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="G6" t="n">
-        <v>514</v>
+        <v>1028</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1097</v>
+        <v>2194</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="M6" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="N6" t="n">
-        <v>1325</v>
+        <v>2650</v>
       </c>
       <c r="O6" t="n">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>275</v>
+        <v>550</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -1508,22 +1508,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>13236</v>
+        <v>26472</v>
       </c>
       <c r="E7" t="n">
-        <v>1157</v>
+        <v>2314</v>
       </c>
       <c r="F7" t="n">
-        <v>437</v>
+        <v>874</v>
       </c>
       <c r="G7" t="n">
-        <v>676</v>
+        <v>1352</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>961</v>
+        <v>1922</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="M7" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="N7" t="n">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="O7" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -1668,22 +1668,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>25724</v>
+        <v>51448</v>
       </c>
       <c r="E8" t="n">
-        <v>766</v>
+        <v>1532</v>
       </c>
       <c r="F8" t="n">
-        <v>434</v>
+        <v>868</v>
       </c>
       <c r="G8" t="n">
-        <v>955</v>
+        <v>1910</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>991</v>
+        <v>1982</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="M8" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="N8" t="n">
-        <v>1761</v>
+        <v>3522</v>
       </c>
       <c r="O8" t="n">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -1828,22 +1828,22 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>36700</v>
+        <v>73400</v>
       </c>
       <c r="E9" t="n">
-        <v>892</v>
+        <v>1784</v>
       </c>
       <c r="F9" t="n">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="G9" t="n">
-        <v>4071</v>
+        <v>8142</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1075</v>
+        <v>2150</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="M9" t="n">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="N9" t="n">
-        <v>1389</v>
+        <v>2778</v>
       </c>
       <c r="O9" t="n">
-        <v>716</v>
+        <v>1432</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="U9" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -1988,22 +1988,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>16547</v>
+        <v>33094</v>
       </c>
       <c r="E10" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F10" t="n">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="G10" t="n">
-        <v>861</v>
+        <v>1722</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>956</v>
+        <v>1912</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2012,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="M10" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="N10" t="n">
-        <v>1605</v>
+        <v>3210</v>
       </c>
       <c r="O10" t="n">
-        <v>535</v>
+        <v>1070</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -2148,22 +2148,22 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>9833</v>
+        <v>19666</v>
       </c>
       <c r="E11" t="n">
-        <v>843</v>
+        <v>1686</v>
       </c>
       <c r="F11" t="n">
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="G11" t="n">
-        <v>335</v>
+        <v>670</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2172,28 +2172,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1186</v>
+        <v>2372</v>
       </c>
       <c r="O11" t="n">
-        <v>419</v>
+        <v>838</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="R11" t="n">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="S11" t="n">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -2308,13 +2308,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3306</v>
+        <v>6612</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F12" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2332,28 +2332,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="O12" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="W12" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -2468,22 +2468,22 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>3430</v>
+        <v>6860</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="O13" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -2628,46 +2628,46 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>6</v>
       </c>
-      <c r="F14" t="n">
-        <v>18</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
       <c r="N14" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -2788,46 +2788,46 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>392</v>
+        <v>784</v>
       </c>
       <c r="E15" t="n">
+        <v>52</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>26</v>
       </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="L15" t="n">
         <v>8</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -2948,22 +2948,22 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2181</v>
+        <v>4362</v>
       </c>
       <c r="E16" t="n">
-        <v>193</v>
+        <v>386</v>
       </c>
       <c r="F16" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="G16" t="n">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2972,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="O16" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -3108,40 +3108,40 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1575</v>
+        <v>3150</v>
       </c>
       <c r="E17" t="n">
-        <v>299</v>
+        <v>598</v>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="G17" t="n">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>239</v>
+        <v>478</v>
       </c>
       <c r="J17" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>455</v>
+        <v>910</v>
       </c>
       <c r="O17" t="n">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="T17" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -3268,22 +3268,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>3458</v>
+        <v>6916</v>
       </c>
       <c r="E18" t="n">
-        <v>1475</v>
+        <v>2950</v>
       </c>
       <c r="F18" t="n">
-        <v>307</v>
+        <v>614</v>
       </c>
       <c r="G18" t="n">
-        <v>553</v>
+        <v>1106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>924</v>
+        <v>1848</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3292,22 +3292,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="M18" t="n">
-        <v>367</v>
+        <v>734</v>
       </c>
       <c r="N18" t="n">
-        <v>1246</v>
+        <v>2492</v>
       </c>
       <c r="O18" t="n">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>207</v>
+        <v>414</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -3428,22 +3428,22 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>5022</v>
+        <v>10044</v>
       </c>
       <c r="E19" t="n">
-        <v>1461</v>
+        <v>2922</v>
       </c>
       <c r="F19" t="n">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="G19" t="n">
-        <v>1150</v>
+        <v>2300</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1193</v>
+        <v>2386</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3452,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="M19" t="n">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="N19" t="n">
-        <v>1667</v>
+        <v>3334</v>
       </c>
       <c r="O19" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="T19" t="n">
-        <v>385</v>
+        <v>770</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -3588,22 +3588,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>12867</v>
+        <v>25734</v>
       </c>
       <c r="E20" t="n">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F20" t="n">
-        <v>474</v>
+        <v>948</v>
       </c>
       <c r="G20" t="n">
-        <v>1108</v>
+        <v>2216</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3612,16 +3612,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="M20" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="N20" t="n">
-        <v>1577</v>
+        <v>3154</v>
       </c>
       <c r="O20" t="n">
-        <v>317</v>
+        <v>634</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -3748,22 +3748,22 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>17036</v>
+        <v>34072</v>
       </c>
       <c r="E21" t="n">
-        <v>908</v>
+        <v>1816</v>
       </c>
       <c r="F21" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="G21" t="n">
-        <v>3115</v>
+        <v>6230</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>887</v>
+        <v>1774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="M21" t="n">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="N21" t="n">
-        <v>1336</v>
+        <v>2672</v>
       </c>
       <c r="O21" t="n">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="U21" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -3908,22 +3908,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>6469</v>
+        <v>12938</v>
       </c>
       <c r="E22" t="n">
-        <v>1207</v>
+        <v>2414</v>
       </c>
       <c r="F22" t="n">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="G22" t="n">
-        <v>863</v>
+        <v>1726</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>822</v>
+        <v>1644</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>257</v>
+        <v>514</v>
       </c>
       <c r="M22" t="n">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="N22" t="n">
-        <v>1394</v>
+        <v>2788</v>
       </c>
       <c r="O22" t="n">
-        <v>361</v>
+        <v>722</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -4068,22 +4068,22 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>2666</v>
+        <v>5332</v>
       </c>
       <c r="E23" t="n">
-        <v>727</v>
+        <v>1454</v>
       </c>
       <c r="F23" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G23" t="n">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>740</v>
+        <v>1480</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -4092,31 +4092,31 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023</v>
+        <v>2046</v>
       </c>
       <c r="O23" t="n">
-        <v>299</v>
+        <v>598</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>369</v>
+        <v>738</v>
       </c>
       <c r="T23" t="n">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -4228,37 +4228,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>655</v>
+        <v>1310</v>
       </c>
       <c r="E24" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G24" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I24" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -4388,58 +4388,58 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>442</v>
+        <v>884</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O25" t="n">
+        <v>56</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>28</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>11</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>14</v>
-      </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -4548,37 +4548,37 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="E26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
         <v>18</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -4587,25 +4587,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>20</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14</v>
+      </c>
+      <c r="U26" t="n">
         <v>10</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>7</v>
-      </c>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -4708,22 +4708,22 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -4732,23 +4732,23 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>16</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>56</v>
+      </c>
+      <c r="O27" t="n">
+        <v>24</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>8</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>28</v>
-      </c>
-      <c r="O27" t="n">
-        <v>12</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -4868,22 +4868,22 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>558</v>
+        <v>1116</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4892,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="O28" t="n">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="S28" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -5028,22 +5028,22 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4550</v>
+        <v>9100</v>
       </c>
       <c r="E29" t="n">
-        <v>449</v>
+        <v>898</v>
       </c>
       <c r="F29" t="n">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="G29" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -5052,22 +5052,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>628</v>
+        <v>1256</v>
       </c>
       <c r="O29" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="P29" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Q29" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -5188,22 +5188,22 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>3489</v>
+        <v>6978</v>
       </c>
       <c r="E30" t="n">
-        <v>1430</v>
+        <v>2860</v>
       </c>
       <c r="F30" t="n">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="G30" t="n">
-        <v>729</v>
+        <v>1458</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -5212,16 +5212,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="M30" t="n">
-        <v>318</v>
+        <v>636</v>
       </c>
       <c r="N30" t="n">
-        <v>1644</v>
+        <v>3288</v>
       </c>
       <c r="O30" t="n">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T30" t="n">
-        <v>331</v>
+        <v>662</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -5348,22 +5348,22 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5001</v>
+        <v>10002</v>
       </c>
       <c r="E31" t="n">
-        <v>1455</v>
+        <v>2910</v>
       </c>
       <c r="F31" t="n">
-        <v>393</v>
+        <v>786</v>
       </c>
       <c r="G31" t="n">
-        <v>1226</v>
+        <v>2452</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1264</v>
+        <v>2528</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5372,16 +5372,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="M31" t="n">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="N31" t="n">
-        <v>1966</v>
+        <v>3932</v>
       </c>
       <c r="O31" t="n">
-        <v>381</v>
+        <v>762</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T31" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -5508,22 +5508,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>12166</v>
+        <v>24332</v>
       </c>
       <c r="E32" t="n">
-        <v>830</v>
+        <v>1660</v>
       </c>
       <c r="F32" t="n">
-        <v>437</v>
+        <v>874</v>
       </c>
       <c r="G32" t="n">
-        <v>1287</v>
+        <v>2574</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1021</v>
+        <v>2042</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -5532,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="N32" t="n">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="O32" t="n">
-        <v>454</v>
+        <v>908</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -5668,22 +5668,22 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>15774</v>
+        <v>31548</v>
       </c>
       <c r="E33" t="n">
-        <v>1079</v>
+        <v>2158</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>5054</v>
+        <v>10108</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1019</v>
+        <v>2038</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="M33" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="N33" t="n">
-        <v>1598</v>
+        <v>3196</v>
       </c>
       <c r="O33" t="n">
-        <v>606</v>
+        <v>1212</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="U33" t="n">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -5828,22 +5828,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>6373</v>
+        <v>12746</v>
       </c>
       <c r="E34" t="n">
-        <v>1617</v>
+        <v>3234</v>
       </c>
       <c r="F34" t="n">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="G34" t="n">
-        <v>1017</v>
+        <v>2034</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1047</v>
+        <v>2094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -5852,16 +5852,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="M34" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="N34" t="n">
-        <v>1765</v>
+        <v>3530</v>
       </c>
       <c r="O34" t="n">
-        <v>469</v>
+        <v>938</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="U34" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -5988,58 +5988,58 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>2878</v>
+        <v>5756</v>
       </c>
       <c r="E35" t="n">
-        <v>963</v>
+        <v>1926</v>
       </c>
       <c r="F35" t="n">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="G35" t="n">
+        <v>692</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1520</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>312</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2712</v>
+      </c>
+      <c r="O35" t="n">
+        <v>484</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>346</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>760</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>156</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1356</v>
-      </c>
-      <c r="O35" t="n">
-        <v>242</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>173</v>
-      </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>371</v>
+        <v>742</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -6148,25 +6148,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>849</v>
+        <v>1698</v>
       </c>
       <c r="E36" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="H36" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I36" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="J36" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -6178,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="O36" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -6308,22 +6308,22 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="E37" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -6332,16 +6332,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="O37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -6350,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S37" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -6468,46 +6468,46 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="E38" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>22</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>78</v>
+      </c>
+      <c r="O38" t="n">
         <v>18</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39</v>
-      </c>
-      <c r="O38" t="n">
-        <v>9</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -6525,23 +6525,23 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>24</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
         <v>12</v>
       </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>6</v>
-      </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -6628,22 +6628,22 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>316</v>
+        <v>632</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -6658,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="O39" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S39" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -6788,46 +6788,46 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1005</v>
+        <v>2010</v>
       </c>
       <c r="E40" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J40" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="O40" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -6948,22 +6948,22 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>4079</v>
+        <v>8158</v>
       </c>
       <c r="E41" t="n">
-        <v>992</v>
+        <v>1984</v>
       </c>
       <c r="F41" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="G41" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>571</v>
+        <v>1142</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -6972,16 +6972,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>872</v>
+        <v>1744</v>
       </c>
       <c r="O41" t="n">
-        <v>617</v>
+        <v>1234</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -6993,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="T41" t="n">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -7108,22 +7108,22 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>4299</v>
+        <v>8598</v>
       </c>
       <c r="E42" t="n">
-        <v>2671</v>
+        <v>5342</v>
       </c>
       <c r="F42" t="n">
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="G42" t="n">
-        <v>799</v>
+        <v>1598</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -7132,16 +7132,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>297</v>
+        <v>594</v>
       </c>
       <c r="M42" t="n">
-        <v>334</v>
+        <v>668</v>
       </c>
       <c r="N42" t="n">
-        <v>1986</v>
+        <v>3972</v>
       </c>
       <c r="O42" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="T42" t="n">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -7268,22 +7268,22 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>5369</v>
+        <v>10738</v>
       </c>
       <c r="E43" t="n">
-        <v>2733</v>
+        <v>5466</v>
       </c>
       <c r="F43" t="n">
-        <v>468</v>
+        <v>936</v>
       </c>
       <c r="G43" t="n">
-        <v>1379</v>
+        <v>2758</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1193</v>
+        <v>2386</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -7292,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M43" t="n">
-        <v>452</v>
+        <v>904</v>
       </c>
       <c r="N43" t="n">
-        <v>2176</v>
+        <v>4352</v>
       </c>
       <c r="O43" t="n">
-        <v>449</v>
+        <v>898</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>348</v>
+        <v>696</v>
       </c>
       <c r="T43" t="n">
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -7428,22 +7428,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>12176</v>
+        <v>24352</v>
       </c>
       <c r="E44" t="n">
-        <v>1480</v>
+        <v>2960</v>
       </c>
       <c r="F44" t="n">
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="G44" t="n">
-        <v>1498</v>
+        <v>2996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>872</v>
+        <v>1744</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -7455,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="N44" t="n">
-        <v>2247</v>
+        <v>4494</v>
       </c>
       <c r="O44" t="n">
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>305</v>
+        <v>610</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -7588,22 +7588,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>16330</v>
+        <v>32660</v>
       </c>
       <c r="E45" t="n">
-        <v>1598</v>
+        <v>3196</v>
       </c>
       <c r="F45" t="n">
-        <v>205</v>
+        <v>410</v>
       </c>
       <c r="G45" t="n">
-        <v>4615</v>
+        <v>9230</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>948</v>
+        <v>1896</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="N45" t="n">
-        <v>1873</v>
+        <v>3746</v>
       </c>
       <c r="O45" t="n">
-        <v>854</v>
+        <v>1708</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -7636,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="U45" t="n">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +7748,22 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>6806</v>
+        <v>13612</v>
       </c>
       <c r="E46" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="F46" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="G46" t="n">
-        <v>1065</v>
+        <v>2130</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1088</v>
+        <v>2176</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -7772,16 +7772,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="N46" t="n">
-        <v>2236</v>
+        <v>4472</v>
       </c>
       <c r="O46" t="n">
-        <v>514</v>
+        <v>1028</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="T46" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -36535,6 +36535,326 @@
         <v>51356</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5485</v>
+      </c>
+      <c r="E226" t="n">
+        <v>526</v>
+      </c>
+      <c r="F226" t="n">
+        <v>656</v>
+      </c>
+      <c r="G226" t="n">
+        <v>594</v>
+      </c>
+      <c r="H226" t="n">
+        <v>146</v>
+      </c>
+      <c r="I226" t="n">
+        <v>380</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>170</v>
+      </c>
+      <c r="M226" t="n">
+        <v>154</v>
+      </c>
+      <c r="N226" t="n">
+        <v>943</v>
+      </c>
+      <c r="O226" t="n">
+        <v>437</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>225</v>
+      </c>
+      <c r="R226" t="n">
+        <v>255</v>
+      </c>
+      <c r="S226" t="n">
+        <v>177</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>115</v>
+      </c>
+      <c r="X226" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>431</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>77</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>114</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>124</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2984</v>
+      </c>
+      <c r="E227" t="n">
+        <v>129</v>
+      </c>
+      <c r="F227" t="n">
+        <v>118</v>
+      </c>
+      <c r="G227" t="n">
+        <v>160</v>
+      </c>
+      <c r="H227" t="n">
+        <v>44</v>
+      </c>
+      <c r="I227" t="n">
+        <v>127</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>53</v>
+      </c>
+      <c r="M227" t="n">
+        <v>28</v>
+      </c>
+      <c r="N227" t="n">
+        <v>250</v>
+      </c>
+      <c r="O227" t="n">
+        <v>298</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>55</v>
+      </c>
+      <c r="R227" t="n">
+        <v>64</v>
+      </c>
+      <c r="S227" t="n">
+        <v>28</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>29</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>157</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>43</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>4683</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Excel_Wide/camino_countries_wide.xlsx
+++ b/Data/Excel_Wide/camino_countries_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ227"/>
+  <dimension ref="A1:AZ228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,37 +708,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1092</v>
+        <v>546</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -868,22 +868,22 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2292</v>
+        <v>1146</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -892,25 +892,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="O3" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R3" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -1028,22 +1028,22 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5406</v>
+        <v>2703</v>
       </c>
       <c r="E4" t="n">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="O4" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1070,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -1188,22 +1188,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>25490</v>
+        <v>12745</v>
       </c>
       <c r="E5" t="n">
-        <v>916</v>
+        <v>458</v>
       </c>
       <c r="F5" t="n">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="G5" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>816</v>
+        <v>408</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1408</v>
+        <v>704</v>
       </c>
       <c r="O5" t="n">
-        <v>978</v>
+        <v>489</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="U5" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -1348,22 +1348,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>22420</v>
+        <v>11210</v>
       </c>
       <c r="E6" t="n">
-        <v>2442</v>
+        <v>1221</v>
       </c>
       <c r="F6" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="G6" t="n">
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2194</v>
+        <v>1097</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="M6" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="N6" t="n">
-        <v>2650</v>
+        <v>1325</v>
       </c>
       <c r="O6" t="n">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>550</v>
+        <v>275</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -1508,22 +1508,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>26472</v>
+        <v>13236</v>
       </c>
       <c r="E7" t="n">
-        <v>2314</v>
+        <v>1157</v>
       </c>
       <c r="F7" t="n">
-        <v>874</v>
+        <v>437</v>
       </c>
       <c r="G7" t="n">
-        <v>1352</v>
+        <v>676</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1922</v>
+        <v>961</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="M7" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="N7" t="n">
-        <v>3040</v>
+        <v>1520</v>
       </c>
       <c r="O7" t="n">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -1668,22 +1668,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>51448</v>
+        <v>25724</v>
       </c>
       <c r="E8" t="n">
-        <v>1532</v>
+        <v>766</v>
       </c>
       <c r="F8" t="n">
-        <v>868</v>
+        <v>434</v>
       </c>
       <c r="G8" t="n">
-        <v>1910</v>
+        <v>955</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1982</v>
+        <v>991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="M8" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="N8" t="n">
-        <v>3522</v>
+        <v>1761</v>
       </c>
       <c r="O8" t="n">
-        <v>802</v>
+        <v>401</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>588</v>
+        <v>294</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -1828,22 +1828,22 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>73400</v>
+        <v>36700</v>
       </c>
       <c r="E9" t="n">
-        <v>1784</v>
+        <v>892</v>
       </c>
       <c r="F9" t="n">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="G9" t="n">
-        <v>8142</v>
+        <v>4071</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2150</v>
+        <v>1075</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="M9" t="n">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="N9" t="n">
-        <v>2778</v>
+        <v>1389</v>
       </c>
       <c r="O9" t="n">
-        <v>1432</v>
+        <v>716</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="U9" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -1988,22 +1988,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>33094</v>
+        <v>16547</v>
       </c>
       <c r="E10" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="F10" t="n">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="G10" t="n">
-        <v>1722</v>
+        <v>861</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1912</v>
+        <v>956</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2012,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="M10" t="n">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="N10" t="n">
-        <v>3210</v>
+        <v>1605</v>
       </c>
       <c r="O10" t="n">
-        <v>1070</v>
+        <v>535</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -2148,22 +2148,22 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>19666</v>
+        <v>9833</v>
       </c>
       <c r="E11" t="n">
-        <v>1686</v>
+        <v>843</v>
       </c>
       <c r="F11" t="n">
-        <v>430</v>
+        <v>215</v>
       </c>
       <c r="G11" t="n">
-        <v>670</v>
+        <v>335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1578</v>
+        <v>789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2172,28 +2172,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>432</v>
+        <v>216</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2372</v>
+        <v>1186</v>
       </c>
       <c r="O11" t="n">
-        <v>838</v>
+        <v>419</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="R11" t="n">
-        <v>474</v>
+        <v>237</v>
       </c>
       <c r="S11" t="n">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -2308,13 +2308,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>6612</v>
+        <v>3306</v>
       </c>
       <c r="E12" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="F12" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2332,28 +2332,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>616</v>
+        <v>308</v>
       </c>
       <c r="O12" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="W12" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -2468,22 +2468,22 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>6860</v>
+        <v>3430</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="O13" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="R13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -2628,47 +2628,47 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="F14" t="n">
-        <v>36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>32</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>44</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>24</v>
-      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -2788,46 +2788,46 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>784</v>
+        <v>392</v>
       </c>
       <c r="E15" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="n">
-        <v>16</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -2948,22 +2948,22 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4362</v>
+        <v>2181</v>
       </c>
       <c r="E16" t="n">
-        <v>386</v>
+        <v>193</v>
       </c>
       <c r="F16" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2972,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="O16" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -3108,40 +3108,40 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3150</v>
+        <v>1575</v>
       </c>
       <c r="E17" t="n">
-        <v>598</v>
+        <v>299</v>
       </c>
       <c r="F17" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>478</v>
+        <v>239</v>
       </c>
       <c r="J17" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>910</v>
+        <v>455</v>
       </c>
       <c r="O17" t="n">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="T17" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -3268,22 +3268,22 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6916</v>
+        <v>3458</v>
       </c>
       <c r="E18" t="n">
-        <v>2950</v>
+        <v>1475</v>
       </c>
       <c r="F18" t="n">
-        <v>614</v>
+        <v>307</v>
       </c>
       <c r="G18" t="n">
-        <v>1106</v>
+        <v>553</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1848</v>
+        <v>924</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3292,22 +3292,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="M18" t="n">
-        <v>734</v>
+        <v>367</v>
       </c>
       <c r="N18" t="n">
-        <v>2492</v>
+        <v>1246</v>
       </c>
       <c r="O18" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -3428,22 +3428,22 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>10044</v>
+        <v>5022</v>
       </c>
       <c r="E19" t="n">
-        <v>2922</v>
+        <v>1461</v>
       </c>
       <c r="F19" t="n">
-        <v>872</v>
+        <v>436</v>
       </c>
       <c r="G19" t="n">
-        <v>2300</v>
+        <v>1150</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2386</v>
+        <v>1193</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3452,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="M19" t="n">
-        <v>976</v>
+        <v>488</v>
       </c>
       <c r="N19" t="n">
-        <v>3334</v>
+        <v>1667</v>
       </c>
       <c r="O19" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="T19" t="n">
-        <v>770</v>
+        <v>385</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -3588,22 +3588,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>25734</v>
+        <v>12867</v>
       </c>
       <c r="E20" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="F20" t="n">
-        <v>948</v>
+        <v>474</v>
       </c>
       <c r="G20" t="n">
-        <v>2216</v>
+        <v>1108</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3612,16 +3612,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="N20" t="n">
-        <v>3154</v>
+        <v>1577</v>
       </c>
       <c r="O20" t="n">
-        <v>634</v>
+        <v>317</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>532</v>
+        <v>266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -3748,22 +3748,22 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>34072</v>
+        <v>17036</v>
       </c>
       <c r="E21" t="n">
-        <v>1816</v>
+        <v>908</v>
       </c>
       <c r="F21" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="G21" t="n">
-        <v>6230</v>
+        <v>3115</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1774</v>
+        <v>887</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="N21" t="n">
-        <v>2672</v>
+        <v>1336</v>
       </c>
       <c r="O21" t="n">
-        <v>1120</v>
+        <v>560</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="U21" t="n">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -3908,22 +3908,22 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>12938</v>
+        <v>6469</v>
       </c>
       <c r="E22" t="n">
-        <v>2414</v>
+        <v>1207</v>
       </c>
       <c r="F22" t="n">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="G22" t="n">
-        <v>1726</v>
+        <v>863</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1644</v>
+        <v>822</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>514</v>
+        <v>257</v>
       </c>
       <c r="M22" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="N22" t="n">
-        <v>2788</v>
+        <v>1394</v>
       </c>
       <c r="O22" t="n">
-        <v>722</v>
+        <v>361</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -4068,22 +4068,22 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>5332</v>
+        <v>2666</v>
       </c>
       <c r="E23" t="n">
-        <v>1454</v>
+        <v>727</v>
       </c>
       <c r="F23" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="G23" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -4092,31 +4092,31 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2046</v>
+        <v>1023</v>
       </c>
       <c r="O23" t="n">
-        <v>598</v>
+        <v>299</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>738</v>
+        <v>369</v>
       </c>
       <c r="T23" t="n">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -4228,37 +4228,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1310</v>
+        <v>655</v>
       </c>
       <c r="E24" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F24" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="H24" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I24" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="J24" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -4388,58 +4388,58 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>884</v>
+        <v>442</v>
       </c>
       <c r="E25" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O25" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -4548,37 +4548,37 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -4708,46 +4708,46 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="E27" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>28</v>
+      </c>
+      <c r="O27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>16</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>56</v>
-      </c>
-      <c r="O27" t="n">
-        <v>24</v>
-      </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -4868,22 +4868,22 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1116</v>
+        <v>558</v>
       </c>
       <c r="E28" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4892,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="O28" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="S28" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -5028,22 +5028,22 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>9100</v>
+        <v>4550</v>
       </c>
       <c r="E29" t="n">
-        <v>898</v>
+        <v>449</v>
       </c>
       <c r="F29" t="n">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="G29" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>698</v>
+        <v>349</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -5052,22 +5052,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1256</v>
+        <v>628</v>
       </c>
       <c r="O29" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="P29" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Q29" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -5188,22 +5188,22 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>6978</v>
+        <v>3489</v>
       </c>
       <c r="E30" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="F30" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="G30" t="n">
-        <v>1458</v>
+        <v>729</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -5212,16 +5212,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>636</v>
+        <v>318</v>
       </c>
       <c r="N30" t="n">
-        <v>3288</v>
+        <v>1644</v>
       </c>
       <c r="O30" t="n">
-        <v>584</v>
+        <v>292</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T30" t="n">
-        <v>662</v>
+        <v>331</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -5348,22 +5348,22 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>10002</v>
+        <v>5001</v>
       </c>
       <c r="E31" t="n">
-        <v>2910</v>
+        <v>1455</v>
       </c>
       <c r="F31" t="n">
-        <v>786</v>
+        <v>393</v>
       </c>
       <c r="G31" t="n">
-        <v>2452</v>
+        <v>1226</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2528</v>
+        <v>1264</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5372,16 +5372,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
-        <v>976</v>
+        <v>488</v>
       </c>
       <c r="N31" t="n">
-        <v>3932</v>
+        <v>1966</v>
       </c>
       <c r="O31" t="n">
-        <v>762</v>
+        <v>381</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="T31" t="n">
-        <v>578</v>
+        <v>289</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -5508,22 +5508,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>24332</v>
+        <v>12166</v>
       </c>
       <c r="E32" t="n">
-        <v>1660</v>
+        <v>830</v>
       </c>
       <c r="F32" t="n">
-        <v>874</v>
+        <v>437</v>
       </c>
       <c r="G32" t="n">
-        <v>2574</v>
+        <v>1287</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2042</v>
+        <v>1021</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -5532,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="M32" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="N32" t="n">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="O32" t="n">
-        <v>908</v>
+        <v>454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -5668,22 +5668,22 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>31548</v>
+        <v>15774</v>
       </c>
       <c r="E33" t="n">
-        <v>2158</v>
+        <v>1079</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10108</v>
+        <v>5054</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2038</v>
+        <v>1019</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="M33" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="N33" t="n">
-        <v>3196</v>
+        <v>1598</v>
       </c>
       <c r="O33" t="n">
-        <v>1212</v>
+        <v>606</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="U33" t="n">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -5828,22 +5828,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>12746</v>
+        <v>6373</v>
       </c>
       <c r="E34" t="n">
-        <v>3234</v>
+        <v>1617</v>
       </c>
       <c r="F34" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="G34" t="n">
-        <v>2034</v>
+        <v>1017</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2094</v>
+        <v>1047</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -5852,16 +5852,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="M34" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="N34" t="n">
-        <v>3530</v>
+        <v>1765</v>
       </c>
       <c r="O34" t="n">
-        <v>938</v>
+        <v>469</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="U34" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -5988,22 +5988,22 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>5756</v>
+        <v>2878</v>
       </c>
       <c r="E35" t="n">
-        <v>1926</v>
+        <v>963</v>
       </c>
       <c r="F35" t="n">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="G35" t="n">
-        <v>692</v>
+        <v>346</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -6012,34 +6012,34 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2712</v>
+        <v>1356</v>
       </c>
       <c r="O35" t="n">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>742</v>
+        <v>371</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -6148,25 +6148,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1698</v>
+        <v>849</v>
       </c>
       <c r="E36" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="H36" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I36" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="J36" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -6178,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="O36" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -6308,22 +6308,22 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="E37" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -6332,16 +6332,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="O37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -6350,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S37" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -6468,65 +6468,65 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="E38" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>12</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>78</v>
-      </c>
-      <c r="O38" t="n">
-        <v>18</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>16</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>24</v>
-      </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -6628,22 +6628,22 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>632</v>
+        <v>316</v>
       </c>
       <c r="E39" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -6658,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="O39" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S39" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -6788,46 +6788,46 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>2010</v>
+        <v>1005</v>
       </c>
       <c r="E40" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J40" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="O40" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -6948,22 +6948,22 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>8158</v>
+        <v>4079</v>
       </c>
       <c r="E41" t="n">
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="F41" t="n">
+        <v>161</v>
+      </c>
+      <c r="G41" t="n">
         <v>322</v>
       </c>
-      <c r="G41" t="n">
-        <v>644</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1142</v>
+        <v>571</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -6972,16 +6972,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1744</v>
+        <v>872</v>
       </c>
       <c r="O41" t="n">
-        <v>1234</v>
+        <v>617</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -6993,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="T41" t="n">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -7108,22 +7108,22 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>8598</v>
+        <v>4299</v>
       </c>
       <c r="E42" t="n">
-        <v>5342</v>
+        <v>2671</v>
       </c>
       <c r="F42" t="n">
-        <v>616</v>
+        <v>308</v>
       </c>
       <c r="G42" t="n">
-        <v>1598</v>
+        <v>799</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -7132,16 +7132,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>594</v>
+        <v>297</v>
       </c>
       <c r="M42" t="n">
-        <v>668</v>
+        <v>334</v>
       </c>
       <c r="N42" t="n">
-        <v>3972</v>
+        <v>1986</v>
       </c>
       <c r="O42" t="n">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="T42" t="n">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -7268,22 +7268,22 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>10738</v>
+        <v>5369</v>
       </c>
       <c r="E43" t="n">
-        <v>5466</v>
+        <v>2733</v>
       </c>
       <c r="F43" t="n">
-        <v>936</v>
+        <v>468</v>
       </c>
       <c r="G43" t="n">
-        <v>2758</v>
+        <v>1379</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2386</v>
+        <v>1193</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -7292,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M43" t="n">
-        <v>904</v>
+        <v>452</v>
       </c>
       <c r="N43" t="n">
-        <v>4352</v>
+        <v>2176</v>
       </c>
       <c r="O43" t="n">
-        <v>898</v>
+        <v>449</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="T43" t="n">
-        <v>630</v>
+        <v>315</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -7428,22 +7428,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>24352</v>
+        <v>12176</v>
       </c>
       <c r="E44" t="n">
-        <v>2960</v>
+        <v>1480</v>
       </c>
       <c r="F44" t="n">
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="G44" t="n">
-        <v>2996</v>
+        <v>1498</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1744</v>
+        <v>872</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -7455,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="N44" t="n">
-        <v>4494</v>
+        <v>2247</v>
       </c>
       <c r="O44" t="n">
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>610</v>
+        <v>305</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>554</v>
+        <v>277</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -7588,22 +7588,22 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>32660</v>
+        <v>16330</v>
       </c>
       <c r="E45" t="n">
-        <v>3196</v>
+        <v>1598</v>
       </c>
       <c r="F45" t="n">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="G45" t="n">
-        <v>9230</v>
+        <v>4615</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1896</v>
+        <v>948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="N45" t="n">
-        <v>3746</v>
+        <v>1873</v>
       </c>
       <c r="O45" t="n">
-        <v>1708</v>
+        <v>854</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -7636,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="U45" t="n">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +7748,22 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>13612</v>
+        <v>6806</v>
       </c>
       <c r="E46" t="n">
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="F46" t="n">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="G46" t="n">
-        <v>2130</v>
+        <v>1065</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2176</v>
+        <v>1088</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -7772,16 +7772,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="M46" t="n">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="N46" t="n">
-        <v>4472</v>
+        <v>2236</v>
       </c>
       <c r="O46" t="n">
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="T46" t="n">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -36855,6 +36855,166 @@
         <v>4683</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>914</v>
+      </c>
+      <c r="E228" t="n">
+        <v>80</v>
+      </c>
+      <c r="F228" t="n">
+        <v>81</v>
+      </c>
+      <c r="G228" t="n">
+        <v>133</v>
+      </c>
+      <c r="H228" t="n">
+        <v>24</v>
+      </c>
+      <c r="I228" t="n">
+        <v>46</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>28</v>
+      </c>
+      <c r="M228" t="n">
+        <v>29</v>
+      </c>
+      <c r="N228" t="n">
+        <v>179</v>
+      </c>
+      <c r="O228" t="n">
+        <v>82</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>45</v>
+      </c>
+      <c r="R228" t="n">
+        <v>35</v>
+      </c>
+      <c r="S228" t="n">
+        <v>31</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>52</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>168</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
